--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT093-002 - Akuntansi - Transaksi - SJS - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT093-002 - Akuntansi - Transaksi - SJS - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27204DA1-DBC3-4EC4-A5A8-727C4DDE9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D70EB-A234-4484-A08B-A3314905947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -120,23 +120,38 @@
     <t>Akuntansi</t>
   </si>
   <si>
-    <t>Penarikan Iuran Peserta Aktif
-Peserta mempunyai NPWP</t>
-  </si>
-  <si>
-    <t>16/08/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12220800000074 </t>
-  </si>
-  <si>
-    <t>M12220800000075</t>
-  </si>
-  <si>
-    <t>M12220800000076</t>
-  </si>
-  <si>
-    <t>M12220800000077</t>
+    <t>19/08/2022</t>
+  </si>
+  <si>
+    <t>Cek jurnal penarikan Iuran Peserta Aktif
+- Peserta mempunyai NPWP</t>
+  </si>
+  <si>
+    <t>M12220800000089</t>
+  </si>
+  <si>
+    <t>M12220800000090</t>
+  </si>
+  <si>
+    <t>M12220800000091</t>
+  </si>
+  <si>
+    <t>M12220800000092</t>
+  </si>
+  <si>
+    <t>M12220800000093</t>
+  </si>
+  <si>
+    <t>M12220800000094</t>
+  </si>
+  <si>
+    <t>M12220800000095</t>
+  </si>
+  <si>
+    <t>M12220800000096</t>
+  </si>
+  <si>
+    <t>M12220800000097</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -213,11 +228,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,15 +679,15 @@
       <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -691,8 +709,8 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -700,12 +718,12 @@
       <c r="F3" s="2" t="str">
         <f xml:space="preserve"> "Username : "&amp;G3&amp;",
 Password : bni1234,
-Search Dokumen ID : "&amp;R3&amp;",
+Search Dokumen ID : "&amp;N3&amp;",
 Tanggal : "&amp;P3</f>
         <v>Username : 32660,
 Password : bni1234,
-Search Dokumen ID : ,
-Tanggal : 16/08/2022</v>
+Search Dokumen ID : M12220800000089,
+Tanggal : 19/08/2022</v>
       </c>
       <c r="G3" s="2">
         <v>32660</v>
@@ -725,16 +743,16 @@
       <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -743,7 +761,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="75" customHeight="1">
+    <row r="4" spans="1:24" ht="75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,21 +771,21 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
+      <c r="D4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f xml:space="preserve"> "Username : "&amp;G4&amp;",
+        <f t="shared" ref="F4:F11" si="0" xml:space="preserve"> "Username : "&amp;G4&amp;",
 Password : bni1234,
-Search Dokumen ID : "&amp;R4&amp;",
+Search Dokumen ID : "&amp;N4&amp;",
 Tanggal : "&amp;P4</f>
         <v>Username : 32660,
 Password : bni1234,
-Search Dokumen ID : ,
-Tanggal : 16/08/2022</v>
+Search Dokumen ID : M12220800000090,
+Tanggal : 19/08/2022</v>
       </c>
       <c r="G4" s="2">
         <v>32660</v>
@@ -787,25 +805,24 @@
       <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="75" customHeight="1">
+    <row r="5" spans="1:24" ht="75">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,21 +832,18 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
+      <c r="D5" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f xml:space="preserve"> "Username : "&amp;G5&amp;",
-Password : bni1234,
-Search Dokumen ID : "&amp;R5&amp;",
-Tanggal : "&amp;P5</f>
+        <f t="shared" si="0"/>
         <v>Username : 32660,
 Password : bni1234,
-Search Dokumen ID : ,
-Tanggal : 16/08/2022</v>
+Search Dokumen ID : M12220800000091,
+Tanggal : 19/08/2022</v>
       </c>
       <c r="G5" s="2">
         <v>32660</v>
@@ -849,25 +863,23 @@
       <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:24" ht="75" customHeight="1">
+    <row r="6" spans="1:24" ht="75">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -877,21 +889,18 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f xml:space="preserve"> "Username : "&amp;G6&amp;",
-Password : bni1234,
-Search Dokumen ID : "&amp;R6&amp;",
-Tanggal : "&amp;P6</f>
+        <f t="shared" si="0"/>
         <v>Username : 32660,
 Password : bni1234,
-Search Dokumen ID : ,
-Tanggal : 16/08/2022</v>
+Search Dokumen ID : M12220800000092,
+Tanggal : 19/08/2022</v>
       </c>
       <c r="G6" s="2">
         <v>32660</v>
@@ -911,40 +920,281 @@
       <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="75">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : M12220800000093,
+Tanggal : 19/08/2022</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="75">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : M12220800000094,
+Tanggal : 19/08/2022</v>
+      </c>
+      <c r="G8" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="4"/>
+    <row r="9" spans="1:24" ht="75">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : M12220800000095,
+Tanggal : 19/08/2022</v>
+      </c>
+      <c r="G9" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="75">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : M12220800000096,
+Tanggal : 19/08/2022</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="75">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : M12220800000097,
+Tanggal : 19/08/2022</v>
+      </c>
+      <c r="G11" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT093-002 - Akuntansi - Transaksi - SJS - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT093-002 - Akuntansi - Transaksi - SJS - Keu Kep - Cek Jurnal Cek Status Upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D70EB-A234-4484-A08B-A3314905947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4924F-7510-4D14-9FB0-90550D188538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>M12220800000097</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,6 +642,9 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -700,9 +706,6 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" ht="75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -762,9 +765,6 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="75">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -823,9 +823,6 @@
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="75">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -880,9 +877,6 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:24" ht="75">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -933,9 +927,6 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="75">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -987,9 +978,6 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="75">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1038,9 +1026,6 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="75">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1089,9 +1074,6 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="75">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1140,9 +1122,6 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="75">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
